--- a/241217_14:47:08_B0CMTFGR4D.xlsx
+++ b/241217_14:47:08_B0CMTFGR4D.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="241217_14:47:"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33266F9B-DAC4-FC49-A8CC-CE34513661FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-33240" yWindow="3540" windowWidth="29400" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Variant Analysis" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Attribute Analysis" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Unavailable ASINs" state="visible" r:id="rId6"/>
+    <sheet name="Variant Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Attribute Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="Unavailable ASINs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -63,9 +72,6 @@
     <t>Solid .925 Sterling Silver Personalized Letter Initial A-Z Greek Key Medallion Necklace Pendant - Choice of Initial Letter Letter G Initial</t>
   </si>
   <si>
-    <t>DEFAULT CHILD</t>
-  </si>
-  <si>
     <t>Letter G Initial</t>
   </si>
   <si>
@@ -337,22 +343,28 @@
   </si>
   <si>
     <t>Letter E Initial</t>
+  </si>
+  <si>
+    <t>CHILD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -718,9 +730,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -729,7 +746,7 @@
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -775,7 +792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -792,15 +809,15 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -815,559 +832,562 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
         <v>39</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
         <v>51</v>
       </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" t="s">
         <v>57</v>
       </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" t="s">
         <v>60</v>
       </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" t="s">
         <v>63</v>
       </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" t="s">
         <v>66</v>
       </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
         <v>68</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" t="s">
         <v>69</v>
       </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
         <v>71</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" t="s">
         <v>72</v>
       </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
         <v>74</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" t="s">
         <v>75</v>
       </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
         <v>77</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" t="s">
         <v>78</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="23" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1375,79 +1395,82 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -1455,7 +1478,7 @@
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1466,39 +1489,39 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>104</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>106</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>107</v>
-      </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>